--- a/Analizador descendete iterativo/Tabla.xlsx
+++ b/Analizador descendete iterativo/Tabla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\OneDrive\Escritorio\Analizador descendete iterativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\OneDrive\Escritorio\Opcionales_Comp\Analizador descendete iterativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB71D2EE-341E-4823-B3B6-963F61A7AE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257DC88E-DAD3-405F-B1FB-6DFC1648F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A2B0957-F8A9-47A6-BA36-9E5EDEA4D2CD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>select</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>T3-&gt;E</t>
+  </si>
+  <si>
+    <t>from</t>
   </si>
 </sst>
 </file>
@@ -492,15 +495,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F2207C-430D-4FF6-9442-6B95D62AD43E}">
-  <dimension ref="B5:I16"/>
+  <dimension ref="B5:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -522,8 +529,11 @@
       <c r="I5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -531,7 +541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -545,7 +555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -556,7 +566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -564,18 +574,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -583,18 +593,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>30</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -602,7 +612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -613,7 +623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -621,7 +631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>17</v>
       </c>
